--- a/Trial 2.xlsx
+++ b/Trial 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Desktop\physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DE285-550E-46F2-ACF5-AE144D7064A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC21F0C-4385-4A0D-B214-1496966513D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="6855" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2148,7 +2148,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/Trial 2.xlsx
+++ b/Trial 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Desktop\physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC21F0C-4385-4A0D-B214-1496966513D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0A2AE-92CE-414D-AC28-77476EC1C3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="6855" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2147,7 +2147,7 @@
   </sheetPr>
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2476,8 +2476,8 @@
         <v>33</v>
       </c>
       <c r="F29" s="20">
-        <f xml:space="preserve"> 1 - (ABS(D20+D23)/ ABS(D21+D22))</f>
-        <v>7.0004722326063584E-3</v>
+        <f>(1 - (ABS(D20+D23)/(ABS(D21+D22))))*100</f>
+        <v>0.70004722326063584</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>3</v>
